--- a/dataset/region/sexo_edad_aysen.xlsx
+++ b/dataset/region/sexo_edad_aysen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kirit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mfurn\Desktop\proyectovdd\errores\dashboard_seguridad\dataset\region\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BCF618BC-641D-4835-AFF8-AC53421380C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5811D640-6456-440F-8477-12EB0D79418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E43A6B34-B15A-4FFE-97B9-0EC9048729A1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E43A6B34-B15A-4FFE-97B9-0EC9048729A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -194,25 +194,25 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -532,77 +532,77 @@
   <dimension ref="A1:U49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection sqref="A1:U49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2">
         <v>2005</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="3">
         <v>2006</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="3">
         <v>2007</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="3">
         <v>2008</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="3">
         <v>2009</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="3">
         <v>2010</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="3">
         <v>2011</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="3">
         <v>2012</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="3">
         <v>2013</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="3">
         <v>2014</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="3">
         <v>2015</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="3">
         <v>2016</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="3">
         <v>2017</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="3">
         <v>2018</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="3">
         <v>2019</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="3">
         <v>2020</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="3">
         <v>2021</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="3">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -667,7 +667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -732,7 +732,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -797,7 +797,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>3</v>
       </c>
@@ -862,7 +862,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -927,7 +927,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -992,7 +992,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>3</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>3</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>3</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1447,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>3</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>3</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>3</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -1772,7 +1772,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>3</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>3</v>
       </c>
@@ -2097,7 +2097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>3917</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>15</v>
       </c>
@@ -2227,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>15</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>15</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>15</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>15</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>15</v>
       </c>
@@ -2617,7 +2617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>15</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>15</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>15</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>15</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>15</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>15</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>15</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>2572</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>15</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>15</v>
       </c>
@@ -3332,7 +3332,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
@@ -3397,7 +3397,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>15</v>
       </c>
@@ -3462,7 +3462,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>15</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>15</v>
       </c>
@@ -3657,7 +3657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>15</v>
       </c>
